--- a/Application-of-Geodetic-Techniques-to-Crustal-Deformation/homework4/InputFile/smoothing_test.xlsx
+++ b/Application-of-Geodetic-Techniques-to-Crustal-Deformation/homework4/InputFile/smoothing_test.xlsx
@@ -5,16 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinchia120/Documents/code-class/Application-of-Geodetic-Techniques-to-Crustal-Deformation/homework4/final/InputFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinchia120/Documents/code-class/Application-of-Geodetic-Techniques-to-Crustal-Deformation/homework4/InputFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B7DE6E-276B-A641-87F9-F2E5FA1ACABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE879C32-0076-F84D-A53E-3B784111360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1980" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">data!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data!$J$2:$J$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data!$J$2:$J$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data!$J$2:$J$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data!$J$2:$J$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">data!$I$2:$I$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">data!$J$2:$J$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>gamma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +59,18 @@
   </si>
   <si>
     <t>rnorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^gamma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,138 +187,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$21</c:f>
+              <c:f>[1]工作表2!$E$1:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.12589254117941667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2589254117941672E-4</c:v>
+                  <c:v>0.15848931924611132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.584893192461112E-4</c:v>
+                  <c:v>0.19952623149688792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9952623149688758E-4</c:v>
+                  <c:v>0.25118864315095796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5118864315095774E-4</c:v>
+                  <c:v>0.31622776601683783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1622776601683783E-4</c:v>
+                  <c:v>0.39810717055349709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.50118723362727202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2589254117941662E-3</c:v>
+                  <c:v>0.63095734448019303</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5848931924611134E-3</c:v>
+                  <c:v>0.79432823472428116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9952623149688781E-3</c:v>
+                  <c:v>0.99999999999999978</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5118864315095777E-3</c:v>
+                  <c:v>1.2589254117941668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1622776601683764E-3</c:v>
+                  <c:v>1.5848931924611132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9810717055349717E-3</c:v>
+                  <c:v>1.9952623149688793</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0118723362727212E-3</c:v>
+                  <c:v>2.5118864315095797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3095734448019251E-3</c:v>
+                  <c:v>3.1622776601683791</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9432823472428121E-3</c:v>
+                  <c:v>3.9810717055349718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.01</c:v>
+                  <c:v>5.011872336272722</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>6.3095734448019307</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>7.943282347242814</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9999999999999982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$21</c:f>
+              <c:f>[1]工作表2!$F$1:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2313.3535339999999</c:v>
+                  <c:v>5.1978569999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.5311609999999</c:v>
+                  <c:v>4.9122659999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2282.2211050000001</c:v>
+                  <c:v>4.5981240000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2264.8603579999999</c:v>
+                  <c:v>4.273498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2238.6474840000001</c:v>
+                  <c:v>3.9618869999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2199.995081</c:v>
+                  <c:v>3.6814520000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2144.8553849999998</c:v>
+                  <c:v>3.4491230000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1613.8959219999999</c:v>
+                  <c:v>3.2604069999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1508.4068589999999</c:v>
+                  <c:v>3.0920679999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1422.9526129999999</c:v>
+                  <c:v>2.9331049999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1355.5014200000001</c:v>
+                  <c:v>2.7877489999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1300.6626819999999</c:v>
+                  <c:v>2.663484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1253.877669</c:v>
+                  <c:v>2.5628760000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1213.116614</c:v>
+                  <c:v>2.4891740000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1178.1039430000001</c:v>
+                  <c:v>2.4373939999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1148.701462</c:v>
+                  <c:v>2.4007329999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1124.013784</c:v>
+                  <c:v>2.3750429999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1102.6140620000001</c:v>
+                  <c:v>2.3556870000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>965.02263000000005</c:v>
+                  <c:v>2.3377810000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>882.22372199999995</c:v>
+                  <c:v>2.318562</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.297196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,7 +332,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC22-AF44-BC6F-56E2EE69539A}"/>
+              <c16:uniqueId val="{00000000-C9D5-F84B-A4D9-5B5E535CC5F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -311,14 +344,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="705979872"/>
-        <c:axId val="705981584"/>
+        <c:axId val="231173295"/>
+        <c:axId val="231261631"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="705979872"/>
+        <c:axId val="231173295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -350,22 +383,16 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>10^gamma</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>10 ^ Gamma</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -389,19 +416,19 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-TW" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -420,7 +447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -435,15 +462,15 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705981584"/>
+        <c:crossAx val="231261631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="705981584"/>
+        <c:axId val="231261631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="850"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -475,22 +502,16 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>rnorm</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Misfit Value</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -514,9 +535,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="zh-TW" altLang="en-US"/>
@@ -545,7 +566,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -560,7 +581,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705979872"/>
+        <c:crossAx val="231173295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -596,7 +617,964 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]工作表2!$A$1:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]工作表2!$B$1:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.1069829999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.991778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8684280000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.741123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4937170000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9842620000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6467869999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4464929999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4238149999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4083670000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4007329999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4032369999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.415864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.440725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7235179999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.542427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-699A-C34A-9598-4487B9C07C38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531874912"/>
+        <c:axId val="531950672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531874912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Falut Dip Angle</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531950672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="531950672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Misfit Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531874912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2589254117941672E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.584893192461112E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9952623149688758E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5118864315095774E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1622776601683783E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2589254117941662E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5848931924611134E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9952623149688781E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5118864315095777E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1622776601683764E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9810717055349717E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0118723362727212E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3095734448019251E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9432823472428121E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2313.3535339999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2293.5311609999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2282.2211050000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2264.8603579999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2238.6474840000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2199.995081</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2144.8553849999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1613.8959219999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1508.4068589999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1422.9526129999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1355.5014200000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300.6626819999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1253.877669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1213.116614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1178.1039430000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1148.701462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1124.013784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1102.6140620000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>965.02263000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>882.22372199999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-112D-884A-B3AA-82001F5C6DCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2046708224"/>
+        <c:axId val="2046709936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2046708224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>10 ^ Gamma</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046709936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2046709936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="870"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>RNORM</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046708224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -649,6 +1627,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1165,32 +2223,1064 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>597662</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66294</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105156</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7575CF25-223B-5ACB-6EA7-94B09F4E75A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F370433-AC63-D845-9607-0101156C09E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1205,7 +3295,368 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>667976</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98918</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98F312A-8CC9-5C4A-B934-7D711D5A458A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>98806</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EB7019-EE1C-56CE-0F5D-583E2DE35427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="工作表1"/>
+      <sheetName val="工作表2"/>
+      <sheetName val="工作表3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1">
+            <v>45</v>
+          </cell>
+          <cell r="B1">
+            <v>4.1069829999999996</v>
+          </cell>
+          <cell r="E1">
+            <v>0.1</v>
+          </cell>
+          <cell r="F1">
+            <v>5.1978569999999999</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>46</v>
+          </cell>
+          <cell r="B2">
+            <v>3.991778</v>
+          </cell>
+          <cell r="E2">
+            <v>0.12589254117941667</v>
+          </cell>
+          <cell r="F2">
+            <v>4.9122659999999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>47</v>
+          </cell>
+          <cell r="B3">
+            <v>3.8684280000000002</v>
+          </cell>
+          <cell r="E3">
+            <v>0.15848931924611132</v>
+          </cell>
+          <cell r="F3">
+            <v>4.5981240000000003</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>48</v>
+          </cell>
+          <cell r="B4">
+            <v>3.741123</v>
+          </cell>
+          <cell r="E4">
+            <v>0.19952623149688792</v>
+          </cell>
+          <cell r="F4">
+            <v>4.273498</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>50</v>
+          </cell>
+          <cell r="B5">
+            <v>3.4937170000000002</v>
+          </cell>
+          <cell r="E5">
+            <v>0.25118864315095796</v>
+          </cell>
+          <cell r="F5">
+            <v>3.9618869999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>55</v>
+          </cell>
+          <cell r="B6">
+            <v>2.9842620000000002</v>
+          </cell>
+          <cell r="E6">
+            <v>0.31622776601683783</v>
+          </cell>
+          <cell r="F6">
+            <v>3.6814520000000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>60</v>
+          </cell>
+          <cell r="B7">
+            <v>2.6467869999999998</v>
+          </cell>
+          <cell r="E7">
+            <v>0.39810717055349709</v>
+          </cell>
+          <cell r="F7">
+            <v>3.4491230000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>65</v>
+          </cell>
+          <cell r="B8">
+            <v>2.4464929999999998</v>
+          </cell>
+          <cell r="E8">
+            <v>0.50118723362727202</v>
+          </cell>
+          <cell r="F8">
+            <v>3.2604069999999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>66</v>
+          </cell>
+          <cell r="B9">
+            <v>2.4238149999999998</v>
+          </cell>
+          <cell r="E9">
+            <v>0.63095734448019303</v>
+          </cell>
+          <cell r="F9">
+            <v>3.0920679999999998</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>67</v>
+          </cell>
+          <cell r="B10">
+            <v>2.4083670000000001</v>
+          </cell>
+          <cell r="E10">
+            <v>0.79432823472428116</v>
+          </cell>
+          <cell r="F10">
+            <v>2.9331049999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>68</v>
+          </cell>
+          <cell r="B11">
+            <v>2.4007329999999998</v>
+          </cell>
+          <cell r="E11">
+            <v>0.99999999999999978</v>
+          </cell>
+          <cell r="F11">
+            <v>2.7877489999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>69</v>
+          </cell>
+          <cell r="B12">
+            <v>2.4032369999999998</v>
+          </cell>
+          <cell r="E12">
+            <v>1.2589254117941668</v>
+          </cell>
+          <cell r="F12">
+            <v>2.663484</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>70</v>
+          </cell>
+          <cell r="B13">
+            <v>2.415864</v>
+          </cell>
+          <cell r="E13">
+            <v>1.5848931924611132</v>
+          </cell>
+          <cell r="F13">
+            <v>2.5628760000000002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>71</v>
+          </cell>
+          <cell r="B14">
+            <v>2.440725</v>
+          </cell>
+          <cell r="E14">
+            <v>1.9952623149688793</v>
+          </cell>
+          <cell r="F14">
+            <v>2.4891740000000002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>75</v>
+          </cell>
+          <cell r="B15">
+            <v>2.7235179999999999</v>
+          </cell>
+          <cell r="E15">
+            <v>2.5118864315095797</v>
+          </cell>
+          <cell r="F15">
+            <v>2.4373939999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>80</v>
+          </cell>
+          <cell r="B16">
+            <v>3.542427</v>
+          </cell>
+          <cell r="E16">
+            <v>3.1622776601683791</v>
+          </cell>
+          <cell r="F16">
+            <v>2.4007329999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>3.9810717055349718</v>
+          </cell>
+          <cell r="F17">
+            <v>2.3750429999999998</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>5.011872336272722</v>
+          </cell>
+          <cell r="F18">
+            <v>2.3556870000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>6.3095734448019307</v>
+          </cell>
+          <cell r="F19">
+            <v>2.3377810000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>7.943282347242814</v>
+          </cell>
+          <cell r="F20">
+            <v>2.318562</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9.9999999999999982</v>
+          </cell>
+          <cell r="F21">
+            <v>2.297196</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,273 +3945,616 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B497C8A1-E814-3B4D-B78A-73F1F575CD53}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>4.1069829999999996</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <f>10^D2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>5.1978569999999999</v>
+      </c>
+      <c r="H2">
         <v>-5</v>
       </c>
-      <c r="B2">
-        <f>10^A2</f>
+      <c r="I2">
+        <f>10^H2</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C2">
+      <c r="J2">
         <v>2313.3535339999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>3.991778</v>
+      </c>
+      <c r="D3">
+        <f>D2+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">10^D3</f>
+        <v>0.12589254117941667</v>
+      </c>
+      <c r="F3">
+        <v>4.9122659999999998</v>
+      </c>
+      <c r="H3">
         <v>-4</v>
       </c>
-      <c r="B3">
-        <f>10^A3</f>
+      <c r="I3">
+        <f>10^H3</f>
         <v>1E-4</v>
       </c>
-      <c r="C3">
+      <c r="J3">
         <v>2293.5311609999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>3.8684280000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D22" si="1">D3+0.1</f>
+        <v>-0.8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.15848931924611132</v>
+      </c>
+      <c r="F4">
+        <v>4.5981240000000003</v>
+      </c>
+      <c r="H4">
         <v>-3.9</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B8" si="0">10^A4</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="2">10^H4</f>
         <v>1.2589254117941672E-4</v>
       </c>
-      <c r="C4">
+      <c r="J4">
         <v>2282.2211050000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>3.741123</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.19952623149688792</v>
+      </c>
+      <c r="F5">
+        <v>4.273498</v>
+      </c>
+      <c r="H5">
         <v>-3.8</v>
       </c>
-      <c r="B5">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.584893192461112E-4</v>
+      </c>
+      <c r="J5">
+        <v>2264.8603579999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>3.4937170000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.584893192461112E-4</v>
-      </c>
-      <c r="C5">
-        <v>2264.8603579999999</v>
+        <v>0.25118864315095796</v>
+      </c>
+      <c r="F6">
+        <v>3.9618869999999999</v>
+      </c>
+      <c r="H6">
+        <v>-3.7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.9952623149688758E-4</v>
+      </c>
+      <c r="J6">
+        <v>2238.6474840000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>-3.7</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>2.9842620000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>1.9952623149688758E-4</v>
-      </c>
-      <c r="C6">
-        <v>2238.6474840000001</v>
+        <v>0.31622776601683783</v>
+      </c>
+      <c r="F7">
+        <v>3.6814520000000002</v>
+      </c>
+      <c r="H7">
+        <v>-3.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.5118864315095774E-4</v>
+      </c>
+      <c r="J7">
+        <v>2199.995081</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>-3.6</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2.6467869999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.5118864315095774E-4</v>
-      </c>
-      <c r="C7">
-        <v>2199.995081</v>
+        <v>0.39810717055349709</v>
+      </c>
+      <c r="F8">
+        <v>3.4491230000000002</v>
+      </c>
+      <c r="H8">
+        <v>-3.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683783E-4</v>
+      </c>
+      <c r="J8">
+        <v>2144.8553849999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>-3.5</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>2.4464929999999998</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.1622776601683783E-4</v>
-      </c>
-      <c r="C8">
-        <v>2144.8553849999998</v>
+        <v>0.50118723362727202</v>
+      </c>
+      <c r="F9">
+        <v>3.2604069999999998</v>
+      </c>
+      <c r="H9">
+        <v>-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="J9">
+        <v>1613.8959219999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>-3</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B21" si="1">10^A9</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C9">
-        <v>1613.8959219999999</v>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>2.4238149999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000015</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.63095734448019303</v>
+      </c>
+      <c r="F10">
+        <v>3.0920679999999998</v>
+      </c>
+      <c r="H10">
+        <v>-2.9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.2589254117941662E-3</v>
+      </c>
+      <c r="J10">
+        <v>1508.4068589999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>-2.9</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>2.4083670000000001</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>1.2589254117941662E-3</v>
-      </c>
-      <c r="C10">
-        <v>1508.4068589999999</v>
+        <v>-0.10000000000000014</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.79432823472428116</v>
+      </c>
+      <c r="F11">
+        <v>2.9331049999999999</v>
+      </c>
+      <c r="H11">
+        <v>-2.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.5848931924611134E-3</v>
+      </c>
+      <c r="J11">
+        <v>1422.9526129999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>-2.8</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>2.4007329999999998</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.5848931924611134E-3</v>
-      </c>
-      <c r="C11">
-        <v>1422.9526129999999</v>
+        <v>-1.3877787807814457E-16</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="F12">
+        <v>2.7877489999999998</v>
+      </c>
+      <c r="H12">
+        <v>-2.7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1.9952623149688781E-3</v>
+      </c>
+      <c r="J12">
+        <v>1355.5014200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>-2.7</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>2.4032369999999998</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>1.9952623149688781E-3</v>
-      </c>
-      <c r="C12">
-        <v>1355.5014200000001</v>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.2589254117941668</v>
+      </c>
+      <c r="F13">
+        <v>2.663484</v>
+      </c>
+      <c r="H13">
+        <v>-2.6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.5118864315095777E-3</v>
+      </c>
+      <c r="J13">
+        <v>1300.6626819999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>-2.6</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>2.415864</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="1"/>
-        <v>2.5118864315095777E-3</v>
-      </c>
-      <c r="C13">
-        <v>1300.6626819999999</v>
+        <v>0.19999999999999987</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.5848931924611132</v>
+      </c>
+      <c r="F14">
+        <v>2.5628760000000002</v>
+      </c>
+      <c r="H14">
+        <v>-2.5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3.1622776601683764E-3</v>
+      </c>
+      <c r="J14">
+        <v>1253.877669</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>-2.5</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>2.440725</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>3.1622776601683764E-3</v>
-      </c>
-      <c r="C14">
-        <v>1253.877669</v>
+        <v>0.29999999999999988</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.9952623149688793</v>
+      </c>
+      <c r="F15">
+        <v>2.4891740000000002</v>
+      </c>
+      <c r="H15">
+        <v>-2.4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>3.9810717055349717E-3</v>
+      </c>
+      <c r="J15">
+        <v>1213.116614</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>-2.4</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>2.7235179999999999</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.9810717055349717E-3</v>
-      </c>
-      <c r="C15">
-        <v>1213.116614</v>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.5118864315095797</v>
+      </c>
+      <c r="F16">
+        <v>2.4373939999999998</v>
+      </c>
+      <c r="H16">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>5.0118723362727212E-3</v>
+      </c>
+      <c r="J16">
+        <v>1178.1039430000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>3.542427</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="1"/>
-        <v>5.0118723362727212E-3</v>
-      </c>
-      <c r="C16">
-        <v>1178.1039430000001</v>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683791</v>
+      </c>
+      <c r="F17">
+        <v>2.4007329999999998</v>
+      </c>
+      <c r="H17">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6.3095734448019251E-3</v>
+      </c>
+      <c r="J17">
+        <v>1148.701462</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:10">
+      <c r="D18">
         <f t="shared" si="1"/>
-        <v>6.3095734448019251E-3</v>
-      </c>
-      <c r="C17">
-        <v>1148.701462</v>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.9810717055349718</v>
+      </c>
+      <c r="F18">
+        <v>2.3750429999999998</v>
+      </c>
+      <c r="H18">
+        <v>-2.1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>7.9432823472428121E-3</v>
+      </c>
+      <c r="J18">
+        <v>1124.013784</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>-2.1</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:10">
+      <c r="D19">
         <f t="shared" si="1"/>
-        <v>7.9432823472428121E-3</v>
-      </c>
-      <c r="C18">
-        <v>1124.013784</v>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.011872336272722</v>
+      </c>
+      <c r="F19">
+        <v>2.3556870000000001</v>
+      </c>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="J19">
+        <v>1102.6140620000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>-2</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:10">
+      <c r="D20">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="C19">
-        <v>1102.6140620000001</v>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6.3095734448019307</v>
+      </c>
+      <c r="F20">
+        <v>2.3377810000000001</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>965.02263000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>-1</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:10">
+      <c r="D21">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>965.02263000000005</v>
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>7.943282347242814</v>
+      </c>
+      <c r="F21">
+        <v>2.318562</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>882.22372199999995</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:10">
+      <c r="D22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>882.22372199999995</v>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="F22">
+        <v>2.297196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>